--- a/biology/Microbiologie/Thermococcus/Thermococcus.xlsx
+++ b/biology/Microbiologie/Thermococcus/Thermococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thermococcus est un genre d'archées hyperthermophiles appartenant au phylum des Euryarchaeota.
 Ce sont des micro-organismes en formes de coques, anaérobies stricts, chimio-organotrophes.
 Ils sont principalement isolés au niveau des évents de cheminées hydrothermales des dorsales océaniques mais également de sources hydrothermales côtières ou terrestres.
 Ce sont des espèces extrêmophiles, qui peuvent se développer dans une gamme de température comprise entre 77 et 97 °C.
-Une souche de Thermococcus gammatolerans (photo en haut à droite de cette page), dite souche EJ3T formée de cocci mobiles s'est montré très tolérante à la radioactivité, à des températures de 55 à 95 °C (son optimum de croissance étant à 88 °C, dans une eau légèrement acide, de pH 6,0 à 20g/L de sel NaCl). C'était en 2003 l'archéobactérie la plus radiorésistante et hyperthermophile connue[1].
+Une souche de Thermococcus gammatolerans (photo en haut à droite de cette page), dite souche EJ3T formée de cocci mobiles s'est montré très tolérante à la radioactivité, à des températures de 55 à 95 °C (son optimum de croissance étant à 88 °C, dans une eau légèrement acide, de pH 6,0 à 20g/L de sel NaCl). C'était en 2003 l'archéobactérie la plus radiorésistante et hyperthermophile connue.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Thermococcus atlanticus
 Thermococcus gammatolerans
